--- a/biology/Médecine/Club_de_Gilda/Club_de_Gilda.xlsx
+++ b/biology/Médecine/Club_de_Gilda/Club_de_Gilda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Club de Gilda (Gilda's Club) est un organisme communautaire pour les personnes atteintes de cancer, leurs familles et leurs amis. Les sections locales offrent des lieux de rencontre où les personnes atteintes de cancer, leurs familles et leurs amis peuvent se joindre à d'autres pour développer un soutien émotionnel et social en complément des soins médicaux. Gratuits et à but non lucratif, les sections du Gilda's Club proposent des groupes de soutien et de réseautage, des conférences, des ateliers et des événements sociaux dans un cadre non résidentiel et familial. Le club a été nommé en l'honneur de l'acteur original de Saturday Night Live, Gilda Radner, décédée d'un cancer de l'ovaire en 1989.
-En 2009, Gilda's Club a fusionné avec The Wellness Community pour former la Cancer Support Community, bien que les succursales locales aient généralement choisi de conserver le nom Gilda's Club. Gilda's Clubs génère des fonds pour soutenir ses programmes à travers des événements souvent organisés par des personnalités notables[1],[2],[3].
+En 2009, Gilda's Club a fusionné avec The Wellness Community pour former la Cancer Support Community, bien que les succursales locales aient généralement choisi de conserver le nom Gilda's Club. Gilda's Clubs génère des fonds pour soutenir ses programmes à travers des événements souvent organisés par des personnalités notables.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilda's Club a été fondé par Joanna Bull, psychothérapeute du cancer de Radner et cofondé avec le veuf de Radner, Gene Wilder (lui-même un survivant du cancer) et le diffuseur Joel Siegel (décédé après une longue bataille contre la maladie)[4]. Joanna Bull a démarré le projet avec seulement 10 000 $ et s'est mise en réseau dans la communauté de soutien contre le cancer de New York[5]. Elle est devenue la directrice exécutive du premier club ouvert à New York en 1995, après une longue campagne de financement qui comprenait des bandes-annonces de films mettant en vedette Wilder dans les théâtres du pays qui a agi en tant que porte-parole de la célébrité[5]. L'organisation tire son nom du commentaire de Radner selon lequel le cancer lui a donné «l'adhésion à un club d'élite auquel je préfère ne pas appartenir»[6]. En 2019, en raison de difficultés financières, The Lake House, une organisation à but non lucratif de lutte contre le cancer, a fusionné avec le Gilda's Club Detroit[7]. Cela a offert un autre emplacement du Gilda's Club à Detroit qui a permis d'élargir la portée du club.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilda's Club a été fondé par Joanna Bull, psychothérapeute du cancer de Radner et cofondé avec le veuf de Radner, Gene Wilder (lui-même un survivant du cancer) et le diffuseur Joel Siegel (décédé après une longue bataille contre la maladie). Joanna Bull a démarré le projet avec seulement 10 000 $ et s'est mise en réseau dans la communauté de soutien contre le cancer de New York. Elle est devenue la directrice exécutive du premier club ouvert à New York en 1995, après une longue campagne de financement qui comprenait des bandes-annonces de films mettant en vedette Wilder dans les théâtres du pays qui a agi en tant que porte-parole de la célébrité. L'organisation tire son nom du commentaire de Radner selon lequel le cancer lui a donné «l'adhésion à un club d'élite auquel je préfère ne pas appartenir». En 2019, en raison de difficultés financières, The Lake House, une organisation à but non lucratif de lutte contre le cancer, a fusionné avec le Gilda's Club Detroit. Cela a offert un autre emplacement du Gilda's Club à Detroit qui a permis d'élargir la portée du club.
 </t>
         </is>
       </c>
